--- a/Config/TableConfig.xlsx
+++ b/Config/TableConfig.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17795" windowHeight="8580" activeTab="3"/>
+    <workbookView windowWidth="19020" windowHeight="8580" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="4" r:id="rId1"/>
     <sheet name="beans" sheetId="2" r:id="rId2"/>
     <sheet name="enums" sheetId="3" r:id="rId3"/>
     <sheet name="audio" sheetId="1" r:id="rId4"/>
+    <sheet name="l10n_ui" sheetId="5" r:id="rId5"/>
+    <sheet name="l10n_game" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +124,30 @@
     <t>audio@TableConfig.xlsx</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>TbL10nUI</t>
+  </si>
+  <si>
+    <t>L10nUI</t>
+  </si>
+  <si>
+    <t>l10n_ui@TableConfig.xlsx</t>
+  </si>
+  <si>
+    <t>l10n_key</t>
+  </si>
+  <si>
+    <t>TbL10nGame</t>
+  </si>
+  <si>
+    <t>L10nGame</t>
+  </si>
+  <si>
+    <t>l10n_game@TableConfig.xlsx</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
@@ -200,13 +226,271 @@
     <t>string</t>
   </si>
   <si>
-    <t>按钮悬停</t>
+    <t>按钮_悬停</t>
+  </si>
+  <si>
+    <t>sfx_button_enter</t>
   </si>
   <si>
     <t>click_btn</t>
   </si>
   <si>
-    <t>按钮点击</t>
+    <t>按钮_点击</t>
+  </si>
+  <si>
+    <t>sfx_button_click</t>
+  </si>
+  <si>
+    <t>enter_tgl</t>
+  </si>
+  <si>
+    <t>切换_悬停</t>
+  </si>
+  <si>
+    <t>click_tgl</t>
+  </si>
+  <si>
+    <t>切换_点击</t>
+  </si>
+  <si>
+    <t>drag_bar_music</t>
+  </si>
+  <si>
+    <t>进度条_拖拽_测试音乐</t>
+  </si>
+  <si>
+    <t>music_main_menu</t>
+  </si>
+  <si>
+    <t>drag_bar_sfx</t>
+  </si>
+  <si>
+    <t>进度条_拖拽_测试音效</t>
+  </si>
+  <si>
+    <t>main_menu_bgm</t>
+  </si>
+  <si>
+    <t>主菜单_背景乐</t>
+  </si>
+  <si>
+    <t>game_bgm</t>
+  </si>
+  <si>
+    <t>游戏_背景乐</t>
+  </si>
+  <si>
+    <t>music_game</t>
+  </si>
+  <si>
+    <t>pop_out</t>
+  </si>
+  <si>
+    <t>弹窗_弹出</t>
+  </si>
+  <si>
+    <t>sfx_pop_out</t>
+  </si>
+  <si>
+    <t>pop_move</t>
+  </si>
+  <si>
+    <t>弹窗_移动</t>
+  </si>
+  <si>
+    <t>sfx_pop_move</t>
+  </si>
+  <si>
+    <t>pop_hide</t>
+  </si>
+  <si>
+    <t>弹窗_隐藏</t>
+  </si>
+  <si>
+    <t>sfx_pop_hide</t>
+  </si>
+  <si>
+    <t>##序列号</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>语言key</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>game_title</t>
+  </si>
+  <si>
+    <t>有趣的游戏</t>
+  </si>
+  <si>
+    <t>Funny Game</t>
+  </si>
+  <si>
+    <t>common_yes</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>common_no</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>common_help</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>main_play</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>main_new_game</t>
+  </si>
+  <si>
+    <t>新游戏</t>
+  </si>
+  <si>
+    <t>New Game</t>
+  </si>
+  <si>
+    <t>main_continue</t>
+  </si>
+  <si>
+    <t>继续游戏</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>main_load</t>
+  </si>
+  <si>
+    <t>加载游戏</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>main_settings</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>main_exit</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>settings_display</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>settings_windowed</t>
+  </si>
+  <si>
+    <t>窗口化</t>
+  </si>
+  <si>
+    <t>Windowed</t>
+  </si>
+  <si>
+    <t>settings_full_screen</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>Full Screen</t>
+  </si>
+  <si>
+    <t>settings_language</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>settings_Chinese</t>
+  </si>
+  <si>
+    <t>settings_English</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>settings_sound</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>settings_music_vol</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>settings_sfx_vol</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Sfx</t>
+  </si>
+  <si>
+    <t>game_name</t>
   </si>
 </sst>
 </file>
@@ -214,18 +498,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -379,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +678,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,13 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -611,6 +943,58 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,214 +1099,284 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -983,6 +1437,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="12" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="4">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="2">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="5">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="6">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,141 +1732,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="23.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="35.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="5.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="8.89166666666667" style="34"/>
+    <col min="2" max="2" width="22.1083333333333" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" style="34" customWidth="1"/>
+    <col min="4" max="4" width="22" style="34" customWidth="1"/>
+    <col min="5" max="5" width="28.225" style="34" customWidth="1"/>
+    <col min="6" max="6" width="35.1083333333333" style="34" customWidth="1"/>
+    <col min="7" max="7" width="18.1083333333333" style="34" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.225" customWidth="1"/>
     <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="54" customFormat="1" spans="1:11">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="30" customFormat="1" spans="1:11">
-      <c r="A2" s="30" t="s">
+    <row r="2" s="55" customFormat="1" spans="1:11">
+      <c r="A2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="31" customFormat="1" ht="41.4" spans="1:11">
-      <c r="A3" s="31" t="s">
+    <row r="3" s="56" customFormat="1" ht="42.75" spans="1:11">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="28" t="b">
+      <c r="D4" s="58">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1392,110 +1915,111 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="10.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="J1" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="28" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="B3" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="28" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="52"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>
   </mergeCells>
@@ -1513,98 +2037,99 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="I2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="L2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" ht="72" customHeight="1" spans="1:12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="48"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
@@ -1616,54 +2141,54 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1111111111111" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.1083333333333" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" style="22" customWidth="1"/>
+    <col min="4" max="4" width="42.225" style="23" customWidth="1"/>
     <col min="5" max="6" width="25.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" customWidth="1"/>
-    <col min="9" max="11" width="14.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.8916666666667" customWidth="1"/>
+    <col min="9" max="11" width="14.775" customWidth="1"/>
     <col min="12" max="12" width="11.3333333333333" customWidth="1"/>
     <col min="13" max="13" width="19.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="34.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="29.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="35.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="29.225" customWidth="1"/>
+    <col min="16" max="16" width="35.4416666666667" customWidth="1"/>
     <col min="17" max="17" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:38">
-      <c r="A1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" s="18" customFormat="1" spans="1:38">
+      <c r="A1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -1684,30 +2209,30 @@
       <c r="AI1"/>
       <c r="AJ1"/>
       <c r="AK1"/>
-      <c r="AL1" s="22"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="14" customHeight="1" spans="1:38">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
+      <c r="AL1" s="46"/>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="14" customHeight="1" spans="1:38">
+      <c r="A2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -1728,334 +2253,415 @@
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2" s="23"/>
+      <c r="AL2" s="47"/>
     </row>
     <row r="3" customFormat="1" spans="1:38">
-      <c r="A3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="10"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="AL3" s="17"/>
+      <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="AL3" s="41"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="AL4" s="17"/>
-    </row>
-    <row r="5" spans="5:38">
-      <c r="E5" s="10"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="AL5" s="17"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="11"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="11"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="10"/>
-      <c r="M8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="11"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="11"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="11"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11"/>
-      <c r="M11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="10"/>
-      <c r="K12" s="20"/>
-      <c r="L12"/>
-      <c r="M12" s="19"/>
-      <c r="N12"/>
-      <c r="O12" s="19"/>
-      <c r="P12"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="10"/>
-      <c r="K13" s="20"/>
-      <c r="L13"/>
-      <c r="M13" s="19"/>
-      <c r="N13"/>
-      <c r="O13" s="19"/>
-      <c r="P13"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="2:17">
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="10"/>
-      <c r="K14" s="20"/>
-      <c r="L14"/>
-      <c r="M14" s="19"/>
-      <c r="N14"/>
-      <c r="O14" s="19"/>
-      <c r="P14"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="10"/>
-      <c r="K15" s="20"/>
-      <c r="L15"/>
-      <c r="M15" s="19"/>
-      <c r="N15"/>
-      <c r="O15" s="19"/>
-      <c r="P15"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="2:17">
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="10"/>
-      <c r="K16" s="20"/>
-      <c r="L16"/>
-      <c r="M16" s="19"/>
-      <c r="N16"/>
-      <c r="O16" s="19"/>
-      <c r="P16"/>
-      <c r="Q16" s="19"/>
+      <c r="A4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="AL4" s="41"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:38">
+      <c r="A5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="AL5" s="41"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="AL6" s="41"/>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="AL7" s="41"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="AL8" s="41"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="AL9" s="41"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="43"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="K12" s="35"/>
+      <c r="M12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="Q12" s="44"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="K13" s="35"/>
+      <c r="M13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="Q13" s="44"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="31"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="M15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="31"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="K16" s="42"/>
+      <c r="M16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="11"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="20"/>
-      <c r="L17"/>
-      <c r="M17" s="19"/>
-      <c r="N17"/>
-      <c r="O17" s="19"/>
-      <c r="P17"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="20"/>
-      <c r="L18"/>
-      <c r="M18" s="19"/>
-      <c r="N18"/>
-      <c r="O18" s="19"/>
-      <c r="P18"/>
-      <c r="Q18" s="19"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="F17" s="35"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="2:17">
+      <c r="B18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="35"/>
+      <c r="K18" s="42"/>
+      <c r="M18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="20"/>
-      <c r="L19"/>
-      <c r="M19" s="19"/>
-      <c r="N19"/>
-      <c r="O19" s="19"/>
-      <c r="P19"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="20"/>
-      <c r="L20"/>
-      <c r="M20" s="19"/>
-      <c r="N20"/>
-      <c r="O20" s="19"/>
-      <c r="P20"/>
-      <c r="Q20" s="19"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="F19" s="35"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="Q19" s="44"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="2:17">
+      <c r="B20" s="31"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="K20" s="42"/>
+      <c r="M20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="11"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="20"/>
-      <c r="L21"/>
-      <c r="M21" s="19"/>
-      <c r="N21"/>
-      <c r="O21" s="19"/>
-      <c r="P21"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="13:17">
-      <c r="M22" s="19"/>
-      <c r="N22"/>
-      <c r="O22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="13:17">
-      <c r="M23" s="19"/>
-      <c r="N23"/>
-      <c r="O23" s="19"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" s="21"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="31"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="42"/>
+      <c r="M22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="Q22" s="44"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="31"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="42"/>
+      <c r="M23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="Q23" s="44"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="31"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="42"/>
+      <c r="M24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="Q24" s="44"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="31"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="42"/>
+      <c r="M25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="Q25" s="44"/>
+    </row>
+    <row r="26" spans="13:17">
+      <c r="M26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="Q26" s="44"/>
+    </row>
+    <row r="27" spans="13:17">
+      <c r="M27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="Q27" s="44"/>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" s="45"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="C12:S22">
     <sortCondition ref="G12:G22"/>
   </sortState>
@@ -2063,4 +2669,513 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.225" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="5" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="6" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>